--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\config\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
     <sheet name="Tenant" sheetId="2" r:id="rId2"/>
+    <sheet name="AllTypes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,17 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,6 +234,214 @@
   </si>
   <si>
     <t>employee_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c04e8b2f-c83e-11e7-b471-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ad63f15-be23-11e7-afef-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95db250e-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b276c863-bd48-11e7-a179-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d9b755-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>932edd34-c05f-11e7-8d35-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offboard_resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offboard_dismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>18612819427</t>
+  </si>
+  <si>
+    <t>13100000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13100000009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13200000009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +508,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,227 +839,307 @@
     <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +1154,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,42 +1169,206 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>general</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +346,6 @@
   </si>
   <si>
     <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>932edd34-c05f-11e7-8d35-5254001aba5d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,6 +438,22 @@
   </si>
   <si>
     <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -848,22 +856,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
         <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -883,10 +891,10 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -906,10 +914,10 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -929,10 +937,10 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -952,10 +960,10 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -975,10 +983,10 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -998,10 +1006,10 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,10 +1029,10 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,10 +1052,10 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1067,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,10 +1098,10 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,10 +1121,10 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,10 +1144,10 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1197,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1215,9 +1223,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1225,150 +1233,157 @@
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>95db250e-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b276c863-bd48-11e7-a179-5254001aba5d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,10 +354,6 @@
   </si>
   <si>
     <t>materialget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offboard_resign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,31 +421,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
+    <t>78a23e9c-c9f8-11e7-ab5f-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offboard_resign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +837,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,22 +856,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -891,10 +891,10 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,10 +914,10 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,10 +937,10 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -960,10 +960,10 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,10 +983,10 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1006,10 +1006,10 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1029,10 +1029,10 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,10 +1052,10 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,10 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1121,10 +1121,10 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,18 +1265,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,13 +1329,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,15 +1343,15 @@
         <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">

--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\config\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="2"/>
+    <workbookView windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" sheetId="1" r:id="rId1"/>
-    <sheet name="Tenant" sheetId="2" r:id="rId2"/>
-    <sheet name="AllTypes" sheetId="3" r:id="rId3"/>
+    <sheet name="Auth" r:id="rId1" sheetId="1"/>
+    <sheet name="Tenant" r:id="rId2" sheetId="2"/>
+    <sheet name="AllTypes" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,18 +87,6 @@
   </si>
   <si>
     <t>测试12</t>
-  </si>
-  <si>
-    <t>测试13</t>
-  </si>
-  <si>
-    <t>测试15</t>
-  </si>
-  <si>
-    <t>测试16</t>
-  </si>
-  <si>
-    <t>测试17</t>
   </si>
   <si>
     <t>测试18</t>
@@ -124,24 +112,10 @@
     <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
   </si>
   <si>
-    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7e2f1608-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>7e3324f3-b2e4-11e7-93d8-5254001aba5d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7e306cb1-b2e4-11e7-93d8-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7e3142f6-b2e4-11e7-93d8-5254001aba5d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,18 +132,6 @@
   </si>
   <si>
     <t>microfastup-22</t>
-  </si>
-  <si>
-    <t>microfastup-23</t>
-  </si>
-  <si>
-    <t>microfastup-25</t>
-  </si>
-  <si>
-    <t>microfastup-26</t>
-  </si>
-  <si>
-    <t>microfastup-27</t>
   </si>
   <si>
     <t>microfastup-28</t>
@@ -445,22 +407,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>78a23e9c-c9f8-11e7-ab5f-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offboard_resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>78a23e9c-c9f8-11e7-ab5f-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offboard_resign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>7ecc5cbb-caa0-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904029719</t>
+  </si>
+  <si>
+    <t>80c1944b-caa0-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904035476</t>
+  </si>
+  <si>
+    <t>82ddc38d-caa0-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904038962</t>
+  </si>
+  <si>
+    <t>8617f13c-caa0-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904044415</t>
+  </si>
+  <si>
+    <t>77a5f64c-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904449933</t>
+  </si>
+  <si>
+    <t>7985776b-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904452768</t>
+  </si>
+  <si>
+    <t>7bf9be57-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904456794</t>
+  </si>
+  <si>
+    <t>7de9560b-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904460268</t>
+  </si>
+  <si>
+    <t>dd45ce39-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904620144</t>
+  </si>
+  <si>
+    <t>df02d876-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904622999</t>
+  </si>
+  <si>
+    <t>e108919b-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904626487</t>
+  </si>
+  <si>
+    <t>e387834b-caa1-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904630552</t>
+  </si>
+  <si>
+    <t>35ae5aae-caa2-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904768407</t>
+  </si>
+  <si>
+    <t>37c004a0-caa2-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904771904</t>
+  </si>
+  <si>
+    <t>39ef5dd8-caa2-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904775218</t>
+  </si>
+  <si>
+    <t>3c3d0f5f-caa2-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510904779540</t>
+  </si>
+  <si>
+    <t>4d88fa9b-caa3-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510905238005</t>
+  </si>
+  <si>
+    <t>4f37f320-caa3-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510905240927</t>
+  </si>
+  <si>
+    <t>5324a8ef-caa3-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510905247281</t>
+  </si>
+  <si>
+    <t>55604c3b-caa3-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510905250839</t>
+  </si>
+  <si>
+    <t>932f938d-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906213860</t>
+  </si>
+  <si>
+    <t>953017f6-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906217340</t>
+  </si>
+  <si>
+    <t>9775d1f3-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906220763</t>
+  </si>
+  <si>
+    <t>99cba804-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906224361</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,29 +610,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -542,10 +649,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -580,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -632,7 +739,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -743,21 +850,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -774,7 +881,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -826,29 +933,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="41.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -856,22 +963,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -882,19 +989,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -905,19 +1012,19 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -928,19 +1035,19 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -951,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,22 +1078,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -994,22 +1101,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1017,22 +1124,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,22 +1147,22 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,22 +1170,22 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,22 +1193,22 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1109,57 +1216,57 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -1167,12 +1274,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.75" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="40.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1197,43 +1304,43 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="40.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,153 +1348,153 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" r:id="rId1" sheetId="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,127 +199,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c04e8b2f-c83e-11e7-b471-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reimbursement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ad63f15-be23-11e7-afef-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjuct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b276c863-bd48-11e7-a179-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95d9b755-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>materialget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offboard_dismiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,180 +267,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>created_by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>932f938d-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906213860</t>
+  </si>
+  <si>
+    <t>953017f6-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906217340</t>
+  </si>
+  <si>
+    <t>9775d1f3-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906220763</t>
+  </si>
+  <si>
+    <t>99cba804-caa5-11e7-8812-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1510906224361</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>project_approval</t>
+  </si>
+  <si>
+    <t>028f8158-9f81-11e7-965d-5254001aba5d</t>
+  </si>
+  <si>
+    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
+  </si>
+  <si>
     <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78a23e9c-c9f8-11e7-ab5f-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offboard_resign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7ecc5cbb-caa0-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904029719</t>
-  </si>
-  <si>
-    <t>80c1944b-caa0-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904035476</t>
-  </si>
-  <si>
-    <t>82ddc38d-caa0-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904038962</t>
-  </si>
-  <si>
-    <t>8617f13c-caa0-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904044415</t>
-  </si>
-  <si>
-    <t>77a5f64c-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904449933</t>
-  </si>
-  <si>
-    <t>7985776b-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904452768</t>
-  </si>
-  <si>
-    <t>7bf9be57-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904456794</t>
-  </si>
-  <si>
-    <t>7de9560b-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904460268</t>
-  </si>
-  <si>
-    <t>dd45ce39-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904620144</t>
-  </si>
-  <si>
-    <t>df02d876-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904622999</t>
-  </si>
-  <si>
-    <t>e108919b-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904626487</t>
-  </si>
-  <si>
-    <t>e387834b-caa1-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904630552</t>
-  </si>
-  <si>
-    <t>35ae5aae-caa2-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904768407</t>
-  </si>
-  <si>
-    <t>37c004a0-caa2-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904771904</t>
-  </si>
-  <si>
-    <t>39ef5dd8-caa2-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904775218</t>
-  </si>
-  <si>
-    <t>3c3d0f5f-caa2-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510904779540</t>
-  </si>
-  <si>
-    <t>4d88fa9b-caa3-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510905238005</t>
-  </si>
-  <si>
-    <t>4f37f320-caa3-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510905240927</t>
-  </si>
-  <si>
-    <t>5324a8ef-caa3-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510905247281</t>
-  </si>
-  <si>
-    <t>55604c3b-caa3-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510905250839</t>
-  </si>
-  <si>
-    <t>932f938d-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510906213860</t>
-  </si>
-  <si>
-    <t>953017f6-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510906217340</t>
-  </si>
-  <si>
-    <t>9775d1f3-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510906220763</t>
-  </si>
-  <si>
-    <t>99cba804-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510906224361</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>95e3b97a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>general_approval</t>
+  </si>
+  <si>
+    <t>95eb0772-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>项目审批</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>通用审批</t>
+  </si>
+  <si>
+    <t>leave_request</t>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
+  </si>
+  <si>
+    <t>resign_request</t>
+  </si>
+  <si>
+    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>补卡</t>
+  </si>
+  <si>
+    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>materialget</t>
+  </si>
+  <si>
+    <t>95e78e13-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>物品领用</t>
+  </si>
+  <si>
+    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>reimbursement</t>
+  </si>
+  <si>
+    <t>95e60ff1-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>报销</t>
+  </si>
+  <si>
+    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>out_request</t>
+  </si>
+  <si>
+    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>95e70193-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
+    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>overtime_request</t>
+  </si>
+  <si>
+    <t>95e02d79-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>加班</t>
+  </si>
+  <si>
+    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>trip_request</t>
+  </si>
+  <si>
+    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>出差</t>
+  </si>
+  <si>
+    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>95e554cf-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
   </si>
 </sst>
 </file>
@@ -943,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -963,22 +859,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -998,10 +894,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,10 +917,10 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,10 +940,10 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1067,10 +963,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,19 +977,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,19 +1000,19 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,19 +1023,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,19 +1046,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,10 +1078,10 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1205,10 +1101,10 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1228,10 +1124,10 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1251,10 +1147,10 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1200,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1330,167 +1226,303 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="40.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
+      <c r="B1" t="s">
+        <v>78</v>
       </c>
       <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B12"/>
       <c r="C12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>117</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="153">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,154 +309,238 @@
     <t>name</t>
   </si>
   <si>
+    <t>028f8158-9f81-11e7-965d-5254001aba5d</t>
+  </si>
+  <si>
+    <t>项目审批</t>
+  </si>
+  <si>
+    <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>95e3b97a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>general_approval</t>
+  </si>
+  <si>
+    <t>95eb0772-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>通用审批</t>
+  </si>
+  <si>
+    <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>转正</t>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>调整</t>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>请假</t>
+  </si>
+  <si>
+    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>补卡</t>
+  </si>
+  <si>
+    <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>辞退</t>
+  </si>
+  <si>
+    <t>materialget</t>
+  </si>
+  <si>
+    <t>95e78e13-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>物品领用</t>
+  </si>
+  <si>
+    <t>reimbursement</t>
+  </si>
+  <si>
+    <t>95e60ff1-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>报销</t>
+  </si>
+  <si>
+    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>95e70193-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
+    <t>overtime_request</t>
+  </si>
+  <si>
+    <t>95e02d79-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>加班</t>
+  </si>
+  <si>
+    <t>trip_request</t>
+  </si>
+  <si>
+    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>出差</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>95e554cf-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>employee_offer</t>
+  </si>
+  <si>
+    <t>95d99661-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
+  </si>
+  <si>
+    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>8ad63f15-be23-11e7-afef-5254001aba5d</t>
+  </si>
+  <si>
+    <t>c04e8b2f-c83e-11e7-b471-5254001aba5d</t>
+  </si>
+  <si>
+    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
+  </si>
+  <si>
+    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>b276c863-bd48-11e7-a179-5254001aba5d</t>
+  </si>
+  <si>
+    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
+  </si>
+  <si>
+    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>95d9b755-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>employee_adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_probation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df9a3a14-cb69-11e7-857f-5254001aba5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>project_approval</t>
-  </si>
-  <si>
-    <t>028f8158-9f81-11e7-965d-5254001aba5d</t>
-  </si>
-  <si>
-    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
-  </si>
-  <si>
-    <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>95e3b97a-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>general_approval</t>
-  </si>
-  <si>
-    <t>95eb0772-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>项目审批</t>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>通用审批</t>
-  </si>
-  <si>
-    <t>leave_request</t>
-  </si>
-  <si>
-    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>请假</t>
-  </si>
-  <si>
-    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
-  </si>
-  <si>
-    <t>resign_request</t>
-  </si>
-  <si>
-    <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>补卡</t>
-  </si>
-  <si>
-    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>materialget</t>
-  </si>
-  <si>
-    <t>95e78e13-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>物品领用</t>
-  </si>
-  <si>
-    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>reimbursement</t>
-  </si>
-  <si>
-    <t>95e60ff1-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>报销</t>
-  </si>
-  <si>
-    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>out_request</t>
-  </si>
-  <si>
-    <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>外出</t>
-  </si>
-  <si>
-    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>95e70193-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>合同</t>
-  </si>
-  <si>
-    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>overtime_request</t>
-  </si>
-  <si>
-    <t>95e02d79-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>加班</t>
-  </si>
-  <si>
-    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>trip_request</t>
-  </si>
-  <si>
-    <t>95e2231d-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>出差</t>
-  </si>
-  <si>
-    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>95e554cf-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>付款</t>
-  </si>
-  <si>
-    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职</t>
+  </si>
+  <si>
+    <t>78a23e9c-c9f8-11e7-ab5f-5254001aba5d</t>
+  </si>
+  <si>
+    <t>f92b9c2e-cdae-11e7-857f-5254001aba5d</t>
   </si>
 </sst>
 </file>
@@ -510,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +606,9 @@
     </xf>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,18 +1313,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1260,273 +1347,296 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
       <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
         <v>93</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B12" t="s">
         <v>104</v>
       </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
         <v>105</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
         <v>112</v>
       </c>
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
       <c r="C16" t="s">
         <v>114</v>
       </c>
       <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
       <c r="B17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18"/>
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="148">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,12 +309,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>project_approval</t>
+  </si>
+  <si>
     <t>028f8158-9f81-11e7-965d-5254001aba5d</t>
   </si>
   <si>
     <t>项目审批</t>
   </si>
   <si>
+    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
+  </si>
+  <si>
     <t>cd00524d-0eed-11e7-b0e5-00163e007053</t>
   </si>
   <si>
@@ -327,6 +333,9 @@
     <t>采购</t>
   </si>
   <si>
+    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
   </si>
   <si>
@@ -339,36 +348,72 @@
     <t>通用审批</t>
   </si>
   <si>
+    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>employee_probation</t>
+  </si>
+  <si>
     <t>95da3e59-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
     <t>转正</t>
   </si>
   <si>
+    <t>8ad63f15-be23-11e7-afef-5254001aba5d</t>
+  </si>
+  <si>
+    <t>employee_adjust</t>
+  </si>
+  <si>
     <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
     <t>调整</t>
   </si>
   <si>
+    <t>c04e8b2f-c83e-11e7-b471-5254001aba5d</t>
+  </si>
+  <si>
+    <t>leave_request</t>
+  </si>
+  <si>
     <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
     <t>请假</t>
   </si>
   <si>
+    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
+  </si>
+  <si>
+    <t>resign_request</t>
+  </si>
+  <si>
     <t>95e34c38-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
     <t>补卡</t>
   </si>
   <si>
+    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
+    <t>辞职</t>
+  </si>
+  <si>
+    <t>09affd67-cdbe-11e7-857f-5254001aba5d</t>
+  </si>
+  <si>
     <t>辞退</t>
   </si>
   <si>
+    <t>b276c863-bd48-11e7-a179-5254001aba5d</t>
+  </si>
+  <si>
     <t>materialget</t>
   </si>
   <si>
@@ -378,6 +423,9 @@
     <t>物品领用</t>
   </si>
   <si>
+    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>reimbursement</t>
   </si>
   <si>
@@ -387,12 +435,21 @@
     <t>报销</t>
   </si>
   <si>
+    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>out_request</t>
+  </si>
+  <si>
     <t>95e2aaad-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
     <t>外出</t>
   </si>
   <si>
+    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>contract</t>
   </si>
   <si>
@@ -402,6 +459,9 @@
     <t>合同</t>
   </si>
   <si>
+    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>overtime_request</t>
   </si>
   <si>
@@ -411,6 +471,9 @@
     <t>加班</t>
   </si>
   <si>
+    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>trip_request</t>
   </si>
   <si>
@@ -420,6 +483,9 @@
     <t>出差</t>
   </si>
   <si>
+    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
+  </si>
+  <si>
     <t>payment</t>
   </si>
   <si>
@@ -429,6 +495,9 @@
     <t>付款</t>
   </si>
   <si>
+    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
     <t>employee_offer</t>
   </si>
   <si>
@@ -438,109 +507,15 @@
     <t>Offer</t>
   </si>
   <si>
-    <t>b80c1d5c-c9cd-11e7-8fb4-5254001aba5d</t>
-  </si>
-  <si>
-    <t>95e3d42c-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95eb32c3-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>8ad63f15-be23-11e7-afef-5254001aba5d</t>
-  </si>
-  <si>
-    <t>c04e8b2f-c83e-11e7-b471-5254001aba5d</t>
-  </si>
-  <si>
-    <t>5389429f-b9f7-11e7-9997-5254001aba5d</t>
-  </si>
-  <si>
-    <t>95e367b3-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>b276c863-bd48-11e7-a179-5254001aba5d</t>
-  </si>
-  <si>
-    <t>95e7b57a-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95e63244-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95e2f732-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95e727c9-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>95e04b46-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
-    <t>43dece2e-c3d1-11e7-8d35-5254001aba5d</t>
-  </si>
-  <si>
-    <t>95e5850a-0f75-11e7-8ff3-00163e007053</t>
-  </si>
-  <si>
     <t>95d9b755-0f75-11e7-8ff3-00163e007053</t>
   </si>
   <si>
-    <t>employee_adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_probation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95dab58f-0f75-11e7-8ff3-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df9a3a14-cb69-11e7-857f-5254001aba5d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_offboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_resign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_approval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职</t>
-  </si>
-  <si>
-    <t>78a23e9c-c9f8-11e7-ab5f-5254001aba5d</t>
-  </si>
-  <si>
-    <t>f92b9c2e-cdae-11e7-857f-5254001aba5d</t>
+    <t>employee_offboardresign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_offboarddismiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,9 +581,6 @@
     </xf>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,12 +1288,12 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.75" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
@@ -1347,291 +1319,291 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\config\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" r:id="rId1" sheetId="1"/>
-    <sheet name="Tenant" r:id="rId2" sheetId="2"/>
-    <sheet name="AllTypes" r:id="rId3" sheetId="3"/>
+    <sheet name="Auth" sheetId="1" r:id="rId1"/>
+    <sheet name="Tenant" sheetId="2" r:id="rId2"/>
+    <sheet name="AllTypes" sheetId="3" r:id="rId3"/>
+    <sheet name="organization" sheetId="4" r:id="rId4"/>
+    <sheet name="position" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,30 +281,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>932f938d-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510906213860</t>
-  </si>
-  <si>
     <t>953017f6-caa5-11e7-8812-5254001aba5d</t>
   </si>
   <si>
-    <t>ZZ_1510906217340</t>
-  </si>
-  <si>
     <t>9775d1f3-caa5-11e7-8812-5254001aba5d</t>
   </si>
   <si>
-    <t>ZZ_1510906220763</t>
-  </si>
-  <si>
-    <t>99cba804-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>ZZ_1510906224361</t>
-  </si>
-  <si>
     <t>type_id</t>
   </si>
   <si>
@@ -516,13 +500,104 @@
   <si>
     <t>employee_offboarddismiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leader_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a62ef58e-beb4-11e7-98c2-5254001aba5d</t>
+  </si>
+  <si>
+    <t>d2b5b58d-0eac-11e7-b0e5-00163e007053</t>
+  </si>
+  <si>
+    <t>a72987b1-beb4-11e7-98c2-5254001aba5d</t>
+  </si>
+  <si>
+    <t>organization_3</t>
+  </si>
+  <si>
+    <t>02f69be1-bf78-11e7-98c2-5254001aba5d</t>
+  </si>
+  <si>
+    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
+  </si>
+  <si>
+    <t>position_1</t>
+  </si>
+  <si>
+    <t>a6be3dac-beb4-11e7-98c2-5254001aba5d</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>organization_1</t>
+  </si>
+  <si>
+    <t>organization_ID</t>
+  </si>
+  <si>
+    <t>position_2</t>
+  </si>
+  <si>
+    <t>a7d70a98-beb4-11e7-98c2-5254001aba5d</t>
+  </si>
+  <si>
+    <t>organization_2</t>
+  </si>
+  <si>
+    <t>position_3</t>
+  </si>
+  <si>
+    <t>03998de4-bf78-11e7-98c2-5254001aba5d</t>
+  </si>
+  <si>
+    <t>53fb4dfc-cdd1-11e7-a5cc-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1511254862623</t>
+  </si>
+  <si>
+    <t>574352e3-cdd1-11e7-a5cc-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1511254868769</t>
+  </si>
+  <si>
+    <t>5a436a82-cdd1-11e7-a5cc-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1511254875816</t>
+  </si>
+  <si>
+    <t>5d4c02ce-cdd1-11e7-a5cc-5254001aba5d</t>
+  </si>
+  <si>
+    <t>ZZ_1511254881010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,29 +640,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -604,10 +679,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -642,7 +717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -694,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -805,21 +880,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -836,7 +911,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -888,29 +963,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="41.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1035,14 +1110,14 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
+      <c r="C6" t="s">
+        <v>163</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -1058,14 +1133,14 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
+      <c r="C7" t="s">
+        <v>165</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1081,14 +1156,14 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
+      <c r="C8" t="s">
+        <v>167</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1104,14 +1179,14 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>169</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -1214,14 +1289,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -1229,12 +1304,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.75" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="40.375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="40.75" collapsed="true"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1279,25 +1354,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.75" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
@@ -1319,296 +1392,476 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,6 +1699,7 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="40.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">

--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\config\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" sheetId="1" r:id="rId1"/>
-    <sheet name="Tenant" sheetId="2" r:id="rId2"/>
-    <sheet name="AllTypes" sheetId="3" r:id="rId3"/>
-    <sheet name="organization" sheetId="4" r:id="rId4"/>
-    <sheet name="position" sheetId="5" r:id="rId5"/>
+    <sheet name="Auth" r:id="rId1" sheetId="1"/>
+    <sheet name="Tenant" r:id="rId2" sheetId="2"/>
+    <sheet name="AllTypes" r:id="rId3" sheetId="3"/>
+    <sheet name="organization" r:id="rId4" sheetId="4"/>
+    <sheet name="position" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="172">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,12 +592,16 @@
   </si>
   <si>
     <t>ZZ_1511254881010</t>
+  </si>
+  <si>
+    <t>employee_offboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,29 +644,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -679,10 +683,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -717,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -769,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -880,21 +884,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -911,7 +915,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -963,15 +967,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -979,13 +983,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="41.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1289,14 +1293,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -1304,12 +1308,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.75" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="40.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,23 +1358,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.75" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,16 +1683,33 @@
         <v>82</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -1696,10 +1717,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.25" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1724,7 +1745,7 @@
         <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>147</v>
@@ -1741,7 +1762,7 @@
         <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>149</v>
@@ -1772,13 +1793,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1786,11 +1807,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1861,8 +1882,32 @@
         <v>161</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\config\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" r:id="rId1" sheetId="1"/>
-    <sheet name="Tenant" r:id="rId2" sheetId="2"/>
-    <sheet name="AllTypes" r:id="rId3" sheetId="3"/>
-    <sheet name="organization" r:id="rId4" sheetId="4"/>
-    <sheet name="position" r:id="rId5" sheetId="5"/>
+    <sheet name="Auth" sheetId="1" r:id="rId1"/>
+    <sheet name="Tenant" sheetId="2" r:id="rId2"/>
+    <sheet name="AllTypes" sheetId="3" r:id="rId3"/>
+    <sheet name="organization" sheetId="4" r:id="rId4"/>
+    <sheet name="position" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="170">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,12 +279,6 @@
   <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>953017f6-caa5-11e7-8812-5254001aba5d</t>
-  </si>
-  <si>
-    <t>9775d1f3-caa5-11e7-8812-5254001aba5d</t>
   </si>
   <si>
     <t>type_id</t>
@@ -601,7 +595,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,29 +637,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -683,10 +676,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -721,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -773,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -884,21 +877,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -915,7 +908,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -967,15 +960,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -983,13 +976,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="41.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1115,13 +1108,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -1138,13 +1131,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1161,13 +1154,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1184,13 +1177,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -1293,14 +1286,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -1308,12 +1301,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.75" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="40.375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="40.75" collapsed="true"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1358,23 +1351,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.75" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1382,10 +1375,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
@@ -1396,331 +1389,331 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
       <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
       <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
       <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
       <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
       <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
         <v>117</v>
       </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
       <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
         <v>121</v>
       </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
         <v>124</v>
       </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
       <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
         <v>125</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
       <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
         <v>129</v>
       </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
       <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
         <v>133</v>
       </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
       </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
       <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
         <v>137</v>
       </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
       <c r="E18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.25" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1728,90 +1721,90 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1819,95 +1812,71 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
         <v>154</v>
       </c>
-      <c r="C2" t="s">
-        <v>156</v>
-      </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\config\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8760" activeTab="4"/>
+    <workbookView activeTab="4" windowHeight="8760" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Auth" sheetId="1" r:id="rId1"/>
-    <sheet name="Tenant" sheetId="2" r:id="rId2"/>
-    <sheet name="AllTypes" sheetId="3" r:id="rId3"/>
-    <sheet name="organization" sheetId="4" r:id="rId4"/>
-    <sheet name="position" sheetId="5" r:id="rId5"/>
+    <sheet name="Auth" r:id="rId1" sheetId="1"/>
+    <sheet name="Tenant" r:id="rId2" sheetId="2"/>
+    <sheet name="AllTypes" r:id="rId3" sheetId="3"/>
+    <sheet name="organization" r:id="rId4" sheetId="4"/>
+    <sheet name="position" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="170">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,29 +638,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -676,10 +677,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -714,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -766,7 +767,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -877,21 +878,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -908,7 +909,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -960,15 +961,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -976,13 +977,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="41.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1286,14 +1287,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -1301,12 +1302,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.75" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="40.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1351,23 +1352,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.75" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="39.75" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="40.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1695,14 +1696,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -1710,10 +1711,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.25" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1786,13 +1787,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -1800,11 +1801,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1877,6 +1878,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/sources/config/release/data.xlsx
+++ b/sources/config/release/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="170">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
